--- a/TeamTextRPG/Data/Excel/Monsters.xlsx
+++ b/TeamTextRPG/Data/Excel/Monsters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8550D746-DCB3-4283-9B05-A4820F3BC99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4672FB-D066-46FF-AE35-7EDD7361C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21600" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="90" windowWidth="14205" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31F3C00-B7C9-451A-BC50-F596FD83BE88}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -691,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -729,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>70</v>
@@ -767,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>20</v>

--- a/TeamTextRPG/Data/Excel/Monsters.xlsx
+++ b/TeamTextRPG/Data/Excel/Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA1139-BC87-4B3E-9167-CE13A7ED5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF8FC9-2B02-4ACD-8EE8-14EB98AA6749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -441,7 +441,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -829,10 +829,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
@@ -867,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
@@ -905,13 +905,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -943,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
@@ -978,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -1019,10 +1019,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>300</v>
@@ -1054,16 +1054,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="H8" s="1">
         <v>15</v>
@@ -1095,13 +1095,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H9" s="1">
         <v>15</v>
@@ -1133,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>360</v>
@@ -1168,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
       <c r="F11" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1">
         <v>360</v>
@@ -1197,31 +1197,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1235,31 +1235,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H13" s="1">
         <v>25</v>
       </c>
       <c r="I13" s="1">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1273,31 +1273,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="1">
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1311,31 +1311,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="1">
         <v>35</v>
       </c>
       <c r="I15" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1349,31 +1349,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="H16" s="1">
         <v>35</v>
       </c>
       <c r="I16" s="1">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1387,31 +1387,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
         <v>26</v>
       </c>
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1">
-        <v>12</v>
-      </c>
       <c r="F17" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="H17" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1425,28 +1425,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="H18" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1">
         <v>-1</v>
@@ -1463,28 +1463,28 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="H19" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I19" s="1">
         <v>-1</v>
@@ -1510,16 +1510,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="1">
         <v>45</v>
@@ -1539,31 +1539,31 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="G21" s="1">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="H21" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1577,31 +1577,31 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G22" s="1">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="H22" s="1">
         <v>45</v>
       </c>
       <c r="I22" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -1627,19 +1627,19 @@
         <v>60</v>
       </c>
       <c r="E23" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="H23" s="1">
         <v>60</v>
       </c>
       <c r="I23" s="1">
-        <v>59</v>
+        <v>-1</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -1653,25 +1653,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="1">
         <v>60</v>
@@ -1691,31 +1691,31 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
         <v>70</v>
       </c>
       <c r="E25" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="H25" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -1729,31 +1729,31 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G26" s="1">
-        <v>6600</v>
+        <v>9200</v>
       </c>
       <c r="H26" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I26" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G27" s="1">
-        <v>9200</v>
+        <v>7500</v>
       </c>
       <c r="H27" s="1">
         <v>70</v>
       </c>
       <c r="I27" s="1">
-        <v>61</v>
+        <v>-1</v>
       </c>
       <c r="J27">
         <v>10</v>
@@ -1805,31 +1805,31 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
       <c r="D28" s="1">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1">
         <v>70</v>
       </c>
-      <c r="E28" s="1">
-        <v>38</v>
-      </c>
       <c r="F28" s="1">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="G28" s="1">
-        <v>7200</v>
+        <v>8800</v>
       </c>
       <c r="H28" s="1">
         <v>70</v>
       </c>
       <c r="I28" s="1">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -1843,31 +1843,31 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="G29" s="1">
-        <v>8600</v>
+        <v>6600</v>
       </c>
       <c r="H29" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I29" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -1881,28 +1881,28 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="G30" s="1">
-        <v>7800</v>
+        <v>13000</v>
       </c>
       <c r="H30" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I30" s="1">
         <v>-1</v>
@@ -1919,28 +1919,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1">
-        <v>650</v>
+        <v>240</v>
       </c>
       <c r="G31" s="1">
-        <v>12800</v>
+        <v>8200</v>
       </c>
       <c r="H31" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I31" s="1">
         <v>-1</v>
@@ -1966,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G32" s="1">
         <v>10000</v>
@@ -2007,13 +2007,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="1">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F33" s="1">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="G33" s="1">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="H33" s="1">
         <v>80</v>
@@ -2033,28 +2033,28 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E34" s="1">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="G34" s="1">
-        <v>11600</v>
+        <v>21000</v>
       </c>
       <c r="H34" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I34" s="1">
         <v>-1</v>
@@ -2071,28 +2071,28 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="G35" s="1">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="H35" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I35" s="1">
         <v>-1</v>
@@ -2118,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="G36" s="1">
         <v>14400</v>
@@ -2159,10 +2159,10 @@
         <v>200</v>
       </c>
       <c r="E37" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="G37" s="1">
         <v>16000</v>
@@ -2185,31 +2185,31 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F38" s="1">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G38" s="1">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="H38" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I38" s="1">
-        <v>-1</v>
+        <v>68</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="G39" s="1">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="H39" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I39" s="1">
-        <v>68</v>
+        <v>-1</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -2270,13 +2270,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E40" s="1">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F40" s="1">
-        <v>1100</v>
+        <v>720</v>
       </c>
       <c r="G40" s="1">
         <v>28000</v>
@@ -2308,13 +2308,13 @@
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F41" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G41" s="1">
         <v>40000</v>
@@ -2346,13 +2346,13 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F42" s="1">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="G42" s="1">
         <v>60000</v>
@@ -2376,7 +2376,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TeamTextRPG/Data/Excel/Monsters.xlsx
+++ b/TeamTextRPG/Data/Excel/Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF8FC9-2B02-4ACD-8EE8-14EB98AA6749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559B8A0F-220B-41E8-85D5-42179D6FBB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,10 +755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
@@ -852,8 +852,10 @@
       <c r="L2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -864,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
@@ -890,8 +892,10 @@
       <c r="L3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -902,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
@@ -928,8 +932,10 @@
       <c r="L4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -940,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
@@ -966,8 +972,10 @@
       <c r="L5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -984,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -1004,8 +1012,10 @@
       <c r="L6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,13 +1026,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>300</v>
@@ -1042,8 +1052,10 @@
       <c r="L7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>440</v>
@@ -1080,8 +1092,10 @@
       <c r="L8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1095,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>600</v>
@@ -1118,8 +1132,10 @@
       <c r="L9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1130,13 +1146,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <v>360</v>
@@ -1156,8 +1172,10 @@
       <c r="L10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1171,10 +1189,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1">
         <v>360</v>
@@ -1194,8 +1212,10 @@
       <c r="L11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,13 +1226,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1">
         <v>1600</v>
@@ -1232,8 +1252,10 @@
       <c r="L12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1">
         <v>800</v>
@@ -1270,8 +1292,10 @@
       <c r="L13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1282,13 +1306,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>1100</v>
@@ -1308,8 +1332,10 @@
       <c r="L14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1">
         <v>1900</v>
@@ -1346,8 +1372,10 @@
       <c r="L15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1">
         <v>2200</v>
@@ -1384,8 +1412,10 @@
       <c r="L16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1396,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1">
         <v>60</v>
@@ -1422,8 +1452,10 @@
       <c r="L17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1434,13 +1466,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G18" s="1">
         <v>2800</v>
@@ -1460,8 +1492,10 @@
       <c r="L18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1472,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1">
         <v>2400</v>
@@ -1498,8 +1532,10 @@
       <c r="L19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,13 +1546,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
         <v>3300</v>
@@ -1536,8 +1572,10 @@
       <c r="L20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1548,13 +1586,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1">
         <v>4800</v>
@@ -1574,8 +1612,10 @@
       <c r="L21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1586,13 +1626,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1">
         <v>3800</v>
@@ -1612,8 +1652,10 @@
       <c r="L22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1624,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G23" s="1">
         <v>5200</v>
@@ -1650,8 +1692,10 @@
       <c r="L23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1662,13 +1706,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G24" s="1">
         <v>6000</v>
@@ -1688,8 +1732,10 @@
       <c r="L24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1700,13 +1746,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G25" s="1">
         <v>4400</v>
@@ -1726,8 +1772,10 @@
       <c r="L25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1738,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F26" s="1">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="G26" s="1">
         <v>9200</v>
@@ -1764,8 +1812,10 @@
       <c r="L26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1776,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G27" s="1">
         <v>7500</v>
@@ -1802,8 +1852,10 @@
       <c r="L27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1814,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F28" s="1">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="G28" s="1">
         <v>8800</v>
@@ -1840,8 +1892,10 @@
       <c r="L28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1852,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G29" s="1">
         <v>6600</v>
@@ -1878,8 +1932,10 @@
       <c r="L29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1890,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="1">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1">
         <v>120</v>
       </c>
-      <c r="E30" s="1">
-        <v>100</v>
-      </c>
       <c r="F30" s="1">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="G30" s="1">
         <v>13000</v>
@@ -1916,8 +1972,10 @@
       <c r="L30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1928,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F31" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G31" s="1">
         <v>8200</v>
@@ -1954,8 +2012,10 @@
       <c r="L31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1966,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="G32" s="1">
         <v>10000</v>
@@ -1992,8 +2052,10 @@
       <c r="L32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2004,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="1">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E33" s="1">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G33" s="1">
         <v>11000</v>
@@ -2030,8 +2092,10 @@
       <c r="L33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2042,13 +2106,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="G34" s="1">
         <v>21000</v>
@@ -2068,8 +2132,10 @@
       <c r="L34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2080,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F35" s="1">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="G35" s="1">
         <v>12000</v>
@@ -2106,8 +2172,10 @@
       <c r="L35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -2118,13 +2186,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G36" s="1">
         <v>14400</v>
@@ -2144,8 +2212,10 @@
       <c r="L36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2159,10 +2229,10 @@
         <v>200</v>
       </c>
       <c r="E37" s="1">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F37" s="1">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="G37" s="1">
         <v>16000</v>
@@ -2182,8 +2252,10 @@
       <c r="L37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,13 +2266,13 @@
         <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E38" s="1">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F38" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="G38" s="1">
         <v>24000</v>
@@ -2220,8 +2292,10 @@
       <c r="L38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -2232,13 +2306,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="G39" s="1">
         <v>18000</v>
@@ -2258,8 +2332,10 @@
       <c r="L39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -2270,13 +2346,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="G40" s="1">
         <v>28000</v>
@@ -2296,8 +2372,10 @@
       <c r="L40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2308,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1">
         <v>800</v>
@@ -2334,8 +2412,10 @@
       <c r="L41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -2346,13 +2426,13 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E42" s="1">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F42" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="1">
         <v>60000</v>
@@ -2372,6 +2452,7 @@
       <c r="L42">
         <v>5</v>
       </c>
+      <c r="M42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/TeamTextRPG/Data/Excel/Monsters.xlsx
+++ b/TeamTextRPG/Data/Excel/Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559B8A0F-220B-41E8-85D5-42179D6FBB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CAE631-CC4A-47AD-A628-29F43750D3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -866,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>18</v>
@@ -989,10 +989,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
